--- a/docs/SCRATCH應用競賽國中甲組動畫設計組決賽名冊.xlsx
+++ b/docs/SCRATCH應用競賽國中甲組動畫設計組決賽名冊.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\IDEAProjects\readxls\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igogo\Documents\資網中心\試場安排\2019資料\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="206">
   <si>
     <t>序</t>
   </si>
@@ -48,220 +48,187 @@
     <t>大甲區大甲國中</t>
   </si>
   <si>
+    <t>紀君霖</t>
+  </si>
+  <si>
+    <t>王俊祺</t>
+  </si>
+  <si>
+    <t>fr10d8</t>
+  </si>
+  <si>
+    <t>rs12wh9</t>
+  </si>
+  <si>
     <t>柯閔竣</t>
   </si>
   <si>
-    <t>王俊祺</t>
-  </si>
-  <si>
-    <t>yg83cd4</t>
-  </si>
-  <si>
-    <t>bj65m5</t>
-  </si>
-  <si>
-    <t>紀君霖</t>
-  </si>
-  <si>
-    <t>smy39wh9</t>
-  </si>
-  <si>
-    <t>rsm42my7</t>
+    <t>bj30sm5</t>
+  </si>
+  <si>
+    <t>tv98my3</t>
+  </si>
+  <si>
+    <t>陳昱昊</t>
+  </si>
+  <si>
+    <t>h29et4</t>
+  </si>
+  <si>
+    <t>p92e7</t>
+  </si>
+  <si>
+    <t>孫琮閔</t>
+  </si>
+  <si>
+    <t>an51h9</t>
+  </si>
+  <si>
+    <t>bjk49fr1</t>
   </si>
   <si>
     <t>大甲區順天國中</t>
   </si>
   <si>
-    <t>施宥延</t>
+    <t>陳冠廷</t>
   </si>
   <si>
     <t>張志輝</t>
   </si>
   <si>
-    <t>dx5fr5</t>
-  </si>
-  <si>
-    <t>ncd50bj4</t>
-  </si>
-  <si>
-    <t>林鑫宏</t>
-  </si>
-  <si>
-    <t>etv31rs3</t>
-  </si>
-  <si>
-    <t>kfr41m4</t>
+    <t>c5t3</t>
+  </si>
+  <si>
+    <t>cd58t7</t>
   </si>
   <si>
     <t>大里區成功國中</t>
   </si>
   <si>
-    <t>許品如</t>
-  </si>
-  <si>
-    <t>許榮栓</t>
-  </si>
-  <si>
-    <t>xb10d1</t>
-  </si>
-  <si>
-    <t>rs74dx2</t>
-  </si>
-  <si>
-    <t>周佾璇</t>
-  </si>
-  <si>
-    <t>rs67yg1</t>
-  </si>
-  <si>
-    <t>kfr80sm5</t>
+    <t>洪靖雅</t>
+  </si>
+  <si>
+    <t>鄭夙芬</t>
+  </si>
+  <si>
+    <t>rsm57x3</t>
+  </si>
+  <si>
+    <t>myg4kf8</t>
   </si>
   <si>
     <t>大里區爽文國中</t>
   </si>
   <si>
-    <t>郭家卉</t>
+    <t>林敬霖</t>
   </si>
   <si>
     <t>王心利</t>
   </si>
   <si>
-    <t>m89bj4</t>
-  </si>
-  <si>
-    <t>jk46sm4</t>
-  </si>
-  <si>
-    <t>葉丞恩</t>
-  </si>
-  <si>
-    <t>kf70c2</t>
-  </si>
-  <si>
-    <t>cdx20c4</t>
-  </si>
-  <si>
-    <t>郭宜軒</t>
-  </si>
-  <si>
-    <t>rsm84e3</t>
-  </si>
-  <si>
-    <t>xb58nc8</t>
+    <t>k62nc7</t>
+  </si>
+  <si>
+    <t>rs49cd6</t>
+  </si>
+  <si>
+    <t>吳秉哲</t>
+  </si>
+  <si>
+    <t>c7gw1</t>
+  </si>
+  <si>
+    <t>nc53v7</t>
+  </si>
+  <si>
+    <t>曾逸亮</t>
+  </si>
+  <si>
+    <t>xb80jk4</t>
+  </si>
+  <si>
+    <t>pe98e3</t>
+  </si>
+  <si>
+    <t>李宥霖</t>
+  </si>
+  <si>
+    <t>f82n1</t>
+  </si>
+  <si>
+    <t>bj59c4</t>
   </si>
   <si>
     <t>大雅區大雅國中</t>
   </si>
   <si>
-    <t>廖惠心</t>
-  </si>
-  <si>
-    <t>陳彥民</t>
-  </si>
-  <si>
-    <t>g86et4</t>
-  </si>
-  <si>
-    <t>etv77j8</t>
-  </si>
-  <si>
-    <t>陳羿汶</t>
+    <t>王婷鈺</t>
   </si>
   <si>
     <t>張光昭</t>
   </si>
   <si>
-    <t>tv36k8</t>
-  </si>
-  <si>
-    <t>e46x1</t>
+    <t>nc38v4</t>
+  </si>
+  <si>
+    <t>rsm79yg5</t>
+  </si>
+  <si>
+    <t>顏婕珽</t>
+  </si>
+  <si>
+    <t>my48an3</t>
+  </si>
+  <si>
+    <t>pet93v6</t>
   </si>
   <si>
     <t>太平區中平國中</t>
   </si>
   <si>
-    <t>李欣穎</t>
-  </si>
-  <si>
-    <t>沈俊卿</t>
-  </si>
-  <si>
-    <t>bjk40p7</t>
-  </si>
-  <si>
-    <t>tv90rs8</t>
-  </si>
-  <si>
-    <t>楊昀甄</t>
-  </si>
-  <si>
-    <t>k36kf6</t>
-  </si>
-  <si>
-    <t>v34hp9</t>
-  </si>
-  <si>
-    <t>太平區新光國中</t>
-  </si>
-  <si>
-    <t>陳炯邑</t>
-  </si>
-  <si>
-    <t>陳宗生</t>
-  </si>
-  <si>
-    <t>v80v3</t>
-  </si>
-  <si>
-    <t>cdx57dx3</t>
+    <t>李東霖</t>
+  </si>
+  <si>
+    <t>梁竣貿</t>
+  </si>
+  <si>
+    <t>y65sm8</t>
+  </si>
+  <si>
+    <t>xbj53an5</t>
+  </si>
+  <si>
+    <t>李松祐</t>
+  </si>
+  <si>
+    <t>etv90rs4</t>
+  </si>
+  <si>
+    <t>etv92n2</t>
   </si>
   <si>
     <t>北屯區北新國中</t>
   </si>
   <si>
-    <t>劉莛宣</t>
-  </si>
-  <si>
-    <t>游世南</t>
-  </si>
-  <si>
-    <t>cd80s3</t>
-  </si>
-  <si>
-    <t>jk83k3</t>
-  </si>
-  <si>
-    <t>王于綸</t>
-  </si>
-  <si>
-    <t>sm36t9</t>
-  </si>
-  <si>
-    <t>cd90s8</t>
-  </si>
-  <si>
     <t>廖悅丞</t>
   </si>
   <si>
-    <t>e17an8</t>
-  </si>
-  <si>
-    <t>smy46v5</t>
-  </si>
-  <si>
-    <t>北屯區東山高中</t>
-  </si>
-  <si>
-    <t>蕭杰騰</t>
-  </si>
-  <si>
-    <t>鍾蕙如</t>
-  </si>
-  <si>
-    <t>my58yg2</t>
-  </si>
-  <si>
-    <t>b68g3</t>
+    <t>蔡明河</t>
+  </si>
+  <si>
+    <t>wh95sm5</t>
+  </si>
+  <si>
+    <t>kf18s7</t>
+  </si>
+  <si>
+    <t>陳珊茹</t>
+  </si>
+  <si>
+    <t>f74e5</t>
+  </si>
+  <si>
+    <t>g9jk7</t>
   </si>
   <si>
     <t>北屯區崇德國中</t>
@@ -273,91 +240,85 @@
     <t>林秀珍</t>
   </si>
   <si>
-    <t>bj90p8</t>
-  </si>
-  <si>
-    <t>rs13kf8</t>
-  </si>
-  <si>
-    <t>呂聿文</t>
-  </si>
-  <si>
-    <t>rs78y2</t>
-  </si>
-  <si>
-    <t>t80k4</t>
+    <t>k14t3</t>
+  </si>
+  <si>
+    <t>t63an7</t>
   </si>
   <si>
     <t>北屯區衛道高中</t>
   </si>
   <si>
-    <t>周韋辰</t>
-  </si>
-  <si>
-    <t>程瑋翔</t>
-  </si>
-  <si>
-    <t>jkf4sm8</t>
-  </si>
-  <si>
-    <t>hpe61m2</t>
+    <t>莊大成</t>
+  </si>
+  <si>
+    <t>郭學政</t>
+  </si>
+  <si>
+    <t>cd89dx6</t>
+  </si>
+  <si>
+    <t>et54h7</t>
   </si>
   <si>
     <t>姚人旭</t>
   </si>
   <si>
-    <t>蔡欣妮</t>
-  </si>
-  <si>
-    <t>wh54h2</t>
-  </si>
-  <si>
-    <t>tv84s6</t>
-  </si>
-  <si>
-    <t>蕭文洋</t>
-  </si>
-  <si>
-    <t>郭學政</t>
-  </si>
-  <si>
-    <t>etv55s3</t>
-  </si>
-  <si>
-    <t>kf14gw9</t>
+    <t>my3g4</t>
+  </si>
+  <si>
+    <t>cd18cd4</t>
+  </si>
+  <si>
+    <t>陳觀讄</t>
+  </si>
+  <si>
+    <t>pe7g1</t>
+  </si>
+  <si>
+    <t>cdx59d2</t>
+  </si>
+  <si>
+    <t>許凱瑞</t>
+  </si>
+  <si>
+    <t>wh99xb6</t>
+  </si>
+  <si>
+    <t>et97pe6</t>
   </si>
   <si>
     <t>北區五權國中</t>
   </si>
   <si>
-    <t>呂宛苡</t>
+    <t>林昱旻</t>
   </si>
   <si>
     <t>李黛君</t>
   </si>
   <si>
-    <t>s17m6</t>
-  </si>
-  <si>
-    <t>dxb50r9</t>
+    <t>kfr16x7</t>
+  </si>
+  <si>
+    <t>yg18n2</t>
   </si>
   <si>
     <t>陳弘偉</t>
   </si>
   <si>
-    <t>bj99p2</t>
-  </si>
-  <si>
-    <t>tv75e6</t>
+    <t>cdx45pe8</t>
+  </si>
+  <si>
+    <t>gw60tv6</t>
   </si>
   <si>
     <t>張晨庭</t>
   </si>
   <si>
-    <t>dx26g9</t>
-  </si>
-  <si>
-    <t>etv9wh6</t>
+    <t>kf88a3</t>
+  </si>
+  <si>
+    <t>wh34hp5</t>
   </si>
   <si>
     <t>北區雙十國中</t>
@@ -366,184 +327,196 @@
     <t>黃韻叡</t>
   </si>
   <si>
-    <t>鄭清俊</t>
-  </si>
-  <si>
-    <t>my90x4</t>
-  </si>
-  <si>
-    <t>fr93b2</t>
-  </si>
-  <si>
-    <t>西屯區安和國中</t>
-  </si>
-  <si>
-    <t>施昕辰</t>
+    <t>楊朝凱</t>
+  </si>
+  <si>
+    <t>jk29jk3</t>
+  </si>
+  <si>
+    <t>fr50gw7</t>
+  </si>
+  <si>
+    <t>吳智歆</t>
+  </si>
+  <si>
+    <t>k25w7</t>
+  </si>
+  <si>
+    <t>n81hp4</t>
+  </si>
+  <si>
+    <t>西屯區漢口國中</t>
+  </si>
+  <si>
+    <t>林育瑋</t>
+  </si>
+  <si>
+    <t>顏永山</t>
+  </si>
+  <si>
+    <t>tv42f6</t>
+  </si>
+  <si>
+    <t>rs52tv8</t>
+  </si>
+  <si>
+    <t>蔡東翰</t>
+  </si>
+  <si>
+    <t>w95gw8</t>
+  </si>
+  <si>
+    <t>kf44tv4</t>
+  </si>
+  <si>
+    <t>杜文介</t>
+  </si>
+  <si>
+    <t>tv28jk7</t>
+  </si>
+  <si>
+    <t>et39an4</t>
+  </si>
+  <si>
+    <t>西屯區福科國中</t>
+  </si>
+  <si>
+    <t>陳佑任</t>
+  </si>
+  <si>
+    <t>何宜霖</t>
+  </si>
+  <si>
+    <t>et3jk1</t>
+  </si>
+  <si>
+    <t>ncd71kf7</t>
+  </si>
+  <si>
+    <t>陳品蓉</t>
+  </si>
+  <si>
+    <t>廖勝雍</t>
+  </si>
+  <si>
+    <t>nc32b9</t>
+  </si>
+  <si>
+    <t>nc24nc7</t>
+  </si>
+  <si>
+    <t>西區光明國中</t>
+  </si>
+  <si>
+    <t>王中富</t>
+  </si>
+  <si>
+    <t>劉容菁</t>
+  </si>
+  <si>
+    <t>tv22p8</t>
+  </si>
+  <si>
+    <t>jkf27s8</t>
+  </si>
+  <si>
+    <t>西區向上國中</t>
+  </si>
+  <si>
+    <t>謝翔聿</t>
   </si>
   <si>
     <t>林義雄</t>
   </si>
   <si>
-    <t>s19yg1</t>
-  </si>
-  <si>
-    <t>myg10f4</t>
-  </si>
-  <si>
-    <t>廖勻薇</t>
-  </si>
-  <si>
-    <t>r34nc8</t>
-  </si>
-  <si>
-    <t>s5xb1</t>
-  </si>
-  <si>
-    <t>西屯區漢口國中</t>
-  </si>
-  <si>
-    <t>吳中孚</t>
-  </si>
-  <si>
-    <t>陳嘉祥</t>
-  </si>
-  <si>
-    <t>gwh58e3</t>
-  </si>
-  <si>
-    <t>d62yg6</t>
-  </si>
-  <si>
-    <t>林沁宇</t>
-  </si>
-  <si>
-    <t>黃仁芷</t>
-  </si>
-  <si>
-    <t>kfr36y4</t>
-  </si>
-  <si>
-    <t>xbj82nc8</t>
-  </si>
-  <si>
-    <t>蔡宗翰</t>
-  </si>
-  <si>
-    <t>kf82pe5</t>
-  </si>
-  <si>
-    <t>rs94c7</t>
-  </si>
-  <si>
-    <t>西屯區福科國中</t>
-  </si>
-  <si>
-    <t>陳佑任</t>
-  </si>
-  <si>
-    <t>廖勝雍</t>
-  </si>
-  <si>
-    <t>cdx57gw2</t>
-  </si>
-  <si>
-    <t>xbj92kf6</t>
-  </si>
-  <si>
-    <t>蔡宜庭</t>
-  </si>
-  <si>
-    <t>r59n4</t>
-  </si>
-  <si>
-    <t>tv96g1</t>
+    <t>myg49w7</t>
+  </si>
+  <si>
+    <t>ncd7sm7</t>
+  </si>
+  <si>
+    <t>吳秉承</t>
+  </si>
+  <si>
+    <t>cdx57yg2</t>
+  </si>
+  <si>
+    <t>tv37xb9</t>
   </si>
   <si>
     <t>西區居仁國中</t>
   </si>
   <si>
-    <t>溫欣</t>
+    <t>林子翔</t>
   </si>
   <si>
     <t>施勳鉁</t>
   </si>
   <si>
-    <t>kf57p6</t>
-  </si>
-  <si>
-    <t>smy38s2</t>
-  </si>
-  <si>
-    <t>曾鈺珊</t>
-  </si>
-  <si>
-    <t>kf31gw2</t>
-  </si>
-  <si>
-    <t>cd70g1</t>
-  </si>
-  <si>
-    <t>西區忠明高中</t>
-  </si>
-  <si>
-    <t>林俊毅</t>
-  </si>
-  <si>
-    <t>劉容菁</t>
-  </si>
-  <si>
-    <t>kf48jk7</t>
-  </si>
-  <si>
-    <t>tv10b9</t>
+    <t>ygw79fr2</t>
+  </si>
+  <si>
+    <t>bj30g2</t>
+  </si>
+  <si>
+    <t>黃大恩</t>
+  </si>
+  <si>
+    <t>吳智偉</t>
+  </si>
+  <si>
+    <t>x88h5</t>
+  </si>
+  <si>
+    <t>pe44m3</t>
   </si>
   <si>
     <t>沙鹿區沙鹿國中</t>
   </si>
   <si>
-    <t>黃冠霖</t>
+    <t>王琳艷</t>
   </si>
   <si>
     <t>王春昇</t>
   </si>
   <si>
-    <t>h65d4</t>
-  </si>
-  <si>
-    <t>e85yg8</t>
-  </si>
-  <si>
-    <t>林梓倫</t>
-  </si>
-  <si>
-    <t>n44dx7</t>
-  </si>
-  <si>
-    <t>smy39cd2</t>
+    <t>ygw71x3</t>
+  </si>
+  <si>
+    <t>p23dx4</t>
+  </si>
+  <si>
+    <t>閔詩雅</t>
+  </si>
+  <si>
+    <t>jkf24gw7</t>
+  </si>
+  <si>
+    <t>jk53cd7</t>
+  </si>
+  <si>
+    <t>陳歆閔</t>
+  </si>
+  <si>
+    <t>anc76dx8</t>
+  </si>
+  <si>
+    <t>x53kf4</t>
   </si>
   <si>
     <t>南屯區大業國中</t>
   </si>
   <si>
-    <t>史玉靖</t>
-  </si>
-  <si>
-    <t>陳易紘</t>
-  </si>
-  <si>
-    <t>an9yg4</t>
-  </si>
-  <si>
-    <t>bj23s8</t>
-  </si>
-  <si>
-    <t>邱翊榛</t>
-  </si>
-  <si>
-    <t>et11et2</t>
-  </si>
-  <si>
-    <t>v46nc7</t>
+    <t>邱彥鈞</t>
+  </si>
+  <si>
+    <t>江愈學</t>
+  </si>
+  <si>
+    <t>cdx44x1</t>
+  </si>
+  <si>
+    <t>gw83my8</t>
   </si>
   <si>
     <t>陳穗慈</t>
@@ -552,109 +525,118 @@
     <t>陳嘉麟</t>
   </si>
   <si>
-    <t>kfr33r1</t>
-  </si>
-  <si>
-    <t>gw29s2</t>
+    <t>my96y6</t>
+  </si>
+  <si>
+    <t>smy79cd1</t>
   </si>
   <si>
     <t>南區崇倫國中</t>
   </si>
   <si>
-    <t>戴羽均</t>
+    <t>陳羿璇</t>
   </si>
   <si>
     <t>曾曉芬</t>
   </si>
   <si>
-    <t>c13cd6</t>
-  </si>
-  <si>
-    <t>rsm91w4</t>
-  </si>
-  <si>
-    <t>陳羿璇</t>
-  </si>
-  <si>
-    <t>林麗萍</t>
-  </si>
-  <si>
-    <t>anc87yg8</t>
-  </si>
-  <si>
-    <t>wh63b9</t>
+    <t>bj60y2</t>
+  </si>
+  <si>
+    <t>pet19n4</t>
   </si>
   <si>
     <t>烏日區光德國中</t>
   </si>
   <si>
-    <t>曾建廷</t>
+    <t>陳宜康</t>
   </si>
   <si>
     <t>林家輝</t>
   </si>
   <si>
-    <t>fr70yg6</t>
-  </si>
-  <si>
-    <t>h23bj3</t>
+    <t>v38nc9</t>
+  </si>
+  <si>
+    <t>xbj98t7</t>
+  </si>
+  <si>
+    <t>顏易逵</t>
+  </si>
+  <si>
+    <t>jk58et4</t>
+  </si>
+  <si>
+    <t>gwh56cd5</t>
+  </si>
+  <si>
+    <t>烏日區明道中學</t>
+  </si>
+  <si>
+    <t>黃芮嫺</t>
+  </si>
+  <si>
+    <t>周祜民</t>
+  </si>
+  <si>
+    <t>jk53xb4</t>
+  </si>
+  <si>
+    <t>sm96hp7</t>
+  </si>
+  <si>
+    <t>戴婧卉</t>
+  </si>
+  <si>
+    <t>whp51nc5</t>
+  </si>
+  <si>
+    <t>yg58kf1</t>
+  </si>
+  <si>
+    <t>龐曉聖</t>
+  </si>
+  <si>
+    <t>rsm4et6</t>
+  </si>
+  <si>
+    <t>etv97r8</t>
+  </si>
+  <si>
+    <t>顧韶鈜</t>
+  </si>
+  <si>
+    <t>pe29tv3</t>
+  </si>
+  <si>
+    <t>n2n2</t>
   </si>
   <si>
     <t>潭子區潭秀國中</t>
   </si>
   <si>
-    <t>林詣勳</t>
+    <t>蔡采盈</t>
+  </si>
+  <si>
+    <t>王金村</t>
+  </si>
+  <si>
+    <t>pe93jk2</t>
+  </si>
+  <si>
+    <t>sm17an8</t>
+  </si>
+  <si>
+    <t>蔡尚辰</t>
   </si>
   <si>
     <t>謝岳</t>
   </si>
   <si>
-    <t>n47f8</t>
-  </si>
-  <si>
-    <t>frs51m3</t>
-  </si>
-  <si>
-    <t>陳哲銘</t>
-  </si>
-  <si>
-    <t>frs3fr4</t>
-  </si>
-  <si>
-    <t>an28fr4</t>
-  </si>
-  <si>
-    <t>豐原區豐南國中</t>
-  </si>
-  <si>
-    <t>傅信瑋</t>
-  </si>
-  <si>
-    <t>陳鈺錡</t>
-  </si>
-  <si>
-    <t>kf64wh6</t>
-  </si>
-  <si>
-    <t>wh31h4</t>
-  </si>
-  <si>
-    <t>施雁勻</t>
-  </si>
-  <si>
-    <t>nc80et2</t>
-  </si>
-  <si>
-    <t>nc81sm5</t>
-  </si>
-  <si>
-    <t>陳昱穎</t>
-  </si>
-  <si>
-    <t>t18hp5</t>
-  </si>
-  <si>
-    <t>jk4kf8</t>
+    <t>etv7y6</t>
+  </si>
+  <si>
+    <t>tv23s5</t>
   </si>
 </sst>
 </file>
@@ -1659,8 +1641,7 @@
     <col min="3" max="3" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="8.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.4">
@@ -1740,19 +1721,19 @@
         <v>7</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1763,19 +1744,19 @@
         <v>7</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D5" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1786,19 +1767,19 @@
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1809,13 +1790,13 @@
         <v>7</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>30</v>
@@ -1901,19 +1882,19 @@
         <v>7</v>
       </c>
       <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="G11" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1924,19 +1905,19 @@
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1947,19 +1928,19 @@
         <v>7</v>
       </c>
       <c r="C13" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="G13" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -1970,19 +1951,19 @@
         <v>7</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -1993,19 +1974,19 @@
         <v>7</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="G15" s="8" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2016,19 +1997,19 @@
         <v>7</v>
       </c>
       <c r="C16" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="G16" s="5" t="s">
         <v>66</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2039,19 +2020,19 @@
         <v>7</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2062,19 +2043,19 @@
         <v>7</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E18" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="5" t="s">
         <v>74</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="19" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2085,19 +2066,19 @@
         <v>7</v>
       </c>
       <c r="C19" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="F19" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="G19" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2108,19 +2089,19 @@
         <v>7</v>
       </c>
       <c r="C20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="F20" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="G20" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2131,19 +2112,19 @@
         <v>7</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E21" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2154,19 +2135,19 @@
         <v>7</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2180,16 +2161,16 @@
         <v>89</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E23" s="8" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G23" s="8" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2203,16 +2184,16 @@
         <v>89</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2223,19 +2204,19 @@
         <v>7</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F25" s="8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2246,19 +2227,19 @@
         <v>7</v>
       </c>
       <c r="C26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>104</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2269,19 +2250,19 @@
         <v>7</v>
       </c>
       <c r="C27" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="D27" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>104</v>
-      </c>
       <c r="F27" s="8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2292,19 +2273,19 @@
         <v>7</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2315,19 +2296,19 @@
         <v>7</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E29" s="8" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="F29" s="8" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2338,19 +2319,19 @@
         <v>7</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="5" t="s">
         <v>118</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2361,19 +2342,19 @@
         <v>7</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="32" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2384,19 +2365,19 @@
         <v>7</v>
       </c>
       <c r="C32" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D32" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="G32" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2407,19 +2388,19 @@
         <v>7</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="E33" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2430,19 +2411,19 @@
         <v>7</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="35" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2453,19 +2434,19 @@
         <v>7</v>
       </c>
       <c r="C35" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>143</v>
-      </c>
       <c r="E35" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2476,19 +2457,19 @@
         <v>7</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="37" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2499,19 +2480,19 @@
         <v>7</v>
       </c>
       <c r="C37" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="8" t="s">
-        <v>151</v>
-      </c>
       <c r="E37" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="F37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>152</v>
-      </c>
       <c r="G37" s="8" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2522,19 +2503,19 @@
         <v>7</v>
       </c>
       <c r="C38" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="G38" s="5" t="s">
         <v>154</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2545,19 +2526,19 @@
         <v>7</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="G39" s="8" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2568,19 +2549,19 @@
         <v>7</v>
       </c>
       <c r="C40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>161</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="G40" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2591,19 +2572,19 @@
         <v>7</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E41" s="8" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="F41" s="8" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2614,19 +2595,19 @@
         <v>7</v>
       </c>
       <c r="C42" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E42" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="F42" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="G42" s="5" t="s">
         <v>169</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="43" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2637,19 +2618,19 @@
         <v>7</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="F43" s="8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2660,19 +2641,19 @@
         <v>7</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="G44" s="5" t="s">
         <v>179</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="45" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2683,19 +2664,19 @@
         <v>7</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="F45" s="8" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2706,19 +2687,19 @@
         <v>7</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2729,19 +2710,19 @@
         <v>7</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E47" s="8" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="F47" s="8" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2752,19 +2733,19 @@
         <v>7</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="5" t="s">
         <v>193</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G48" s="5" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2775,19 +2756,19 @@
         <v>7</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="E49" s="8" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.4">
@@ -2798,19 +2779,19 @@
         <v>7</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="5" t="s">
         <v>201</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="F50" s="5" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" s="5" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="51" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2821,19 +2802,19 @@
         <v>7</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E51" s="8" t="s">
         <v>203</v>
       </c>
       <c r="F51" s="8" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="G51" s="8" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
